--- a/Sprint#5/pruebas individuales David/Log_pruebas_individuales_RF-45.xlsx
+++ b/Sprint#5/pruebas individuales David/Log_pruebas_individuales_RF-45.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#5\pruebas individuales Oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#5\pruebas individuales David\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C09D61-C5EC-4C4A-AF0C-8CE0CDDA0AF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 33" sheetId="1" r:id="rId1"/>
     <sheet name="Hojade pruebas" sheetId="3" r:id="rId2"/>
-    <sheet name="firmas" sheetId="4" r:id="rId3"/>
+    <sheet name="Resultado" sheetId="5" r:id="rId3"/>
+    <sheet name="firmas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>Observación</t>
   </si>
@@ -403,13 +405,25 @@
     <t>El resultado de la búsqueda se debe poder descargar por medio de un documento pdf que siga el formato del anexo 1.</t>
   </si>
   <si>
-    <t>Oscar Alvarado Gutiérrez</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>David Aguilar Rojas</t>
+  </si>
+  <si>
+    <t>El tooltip del año no cambia según el año del reporte</t>
+  </si>
+  <si>
+    <t>Se cambia el diseño del anexo 2 pero la empresa está de acuerdo con el cambio.</t>
+  </si>
+  <si>
+    <t>El documento que se genera correctamente, sin embargo el gráfico muestra demasiados decimales.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,7 +731,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,6 +752,55 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>668226</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D640401E-3D15-4D8B-8F66-C8AB0F23F617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="10574226" cy="7840169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -752,7 +815,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8701D5D9-3BFD-4F90-AADF-728AC9E35013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8701D5D9-3BFD-4F90-AADF-728AC9E35013}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,11 +1171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -1247,6 +1310,9 @@
         <v>15</v>
       </c>
       <c r="C11" s="6"/>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1256,6 +1322,9 @@
         <v>15</v>
       </c>
       <c r="C12" s="6"/>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1266,6 +1335,9 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
@@ -1353,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1858,7 +1930,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78519866-5EEF-4BF8-A050-8BE5A67BB903}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
